--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Kalvino</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>file:///Users/44022649/fc572/pagefiller/src/test/resources/testData/pageOne.html</t>
-  </si>
-  <si>
-    <t>file:///Users/44022649/fc572/pagefiller/src/test/resources/testData/pageTwo.html</t>
   </si>
   <si>
     <t>button</t>
@@ -515,10 +512,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -531,10 +528,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -552,7 +549,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -570,7 +567,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -588,7 +585,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -606,13 +603,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -624,13 +621,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -641,48 +638,48 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -738,14 +735,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -761,7 +755,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -777,7 +771,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -793,7 +787,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -810,13 +804,13 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -827,13 +821,13 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -843,20 +837,20 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
@@ -867,7 +861,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
